--- a/medicine/Enfance/Annie_M._G._Schmidt/Annie_M._G._Schmidt.xlsx
+++ b/medicine/Enfance/Annie_M._G._Schmidt/Annie_M._G._Schmidt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Maria Geertruida Schmidt, née à Kapelle, le 20 mai 1911 – morte à Amsterdam, le 21 mai 1995, est une poétesse néerlandaise, auteur de chansons, livres, pièces de théâtre, comédies musicales et drames pour radio et télévision. Elle est lauréate en 1988 du prestigieux prix international, le Prix Hans-Christian-Andersen, catégorie Écriture.
 Elle est surtout célèbre pour ses livres pour la jeunesse tels que : Jip en Janneke, Pluk van de Petteflet, Abeltje et ses chansons d'enfants, notamment Dikkertje Dap et Het Beertje Pippeloentje. Des générations de Néerlandais ont grandi avec ses poèmes et ses contes, et c'est ainsi que son œuvre est devenue une part de la mémoire collective des Pays-Bas d'après-guerre.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Annie M.G. Schmidt est la fille d'un pasteur de Kapelle. Elle est d'abord bibliothécaire à Amsterdam et Flessingue. Depuis 1946, elle est documentaliste et ensuite rédactrice au journal Het Parool à Amsterdam, jusqu'en 1958.
 Durant cette période, elle devient membre du groupe de cabaret De Inktvis et elle écrit alors des textes et des chansons pour, entre autres, Wim Kan, Wim Sonneveld et Conny Stuart. Elle acquiert une première renommée avec In Holland staat een huis, drame pour radio, qui connaît, entre 1952 et 1958, 91 épisodes. De cette série proviennent des chansons telles qu'Ali Cyaankali. 
@@ -548,13 +562,15 @@
           <t>Œuvre traduite en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la première date est celle de la première parution française)
-1963 : L’Ascenseur volant[1] (Abeltje, 1953)
-1968 : Monsieur Ouiplala[2] (Wiplala, 1957)  (EAN 2000053542616)
-1982 : Cette mystérieuse Minouche[3] (Minoes, 1970)  (EAN 9782010154799)
-1997 : Les Comptines de Robinson[4] (Het beertje Pippeloentje, 1958)  (EAN 9782226089519)</t>
+1963 : L’Ascenseur volant (Abeltje, 1953)
+1968 : Monsieur Ouiplala (Wiplala, 1957)  (EAN 2000053542616)
+1982 : Cette mystérieuse Minouche (Minoes, 1970)  (EAN 9782010154799)
+1997 : Les Comptines de Robinson (Het beertje Pippeloentje, 1958)  (EAN 9782226089519)</t>
         </is>
       </c>
     </row>
@@ -582,14 +598,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Annie M. G. Schmidt est lauréate d'un grand nombre de prix littéraires : prix de littérature de jeunesse, prix de théâtre, prix pour son œuvre, dont les plus prestigieux :
-1960 : (international) « Runner-Up List »[5], par l' IBBY, pour Wiplala (Monsieur Ouiplala)
+1960 : (international) « Runner-Up List », par l' IBBY, pour Wiplala (Monsieur Ouiplala)
 1964 – Prix de l'État pour littérature d'enfance et de jeunesse pour son œuvre
 1971 : Zilveren Griffel (nl) pour Minoes (Cette mystérieuse Minouche)
 1972 : Zilveren Griffel (nl) pour Pluk van de Petteflet
-1972 : (international) « Honor List »[5], de l' IBBY, pour Minoes (Cette mystérieuse Minouche)
+1972 : (international) « Honor List », de l' IBBY, pour Minoes (Cette mystérieuse Minouche)
 1974 – Prix Edmond Hustinx pour auteurs de pièces de théâtre pour son œuvre
 1981 : Gouden Griffel pour Otje
 1987 – Prix Constantijn Huygens pour son œuvre
@@ -625,10 +643,12 @@
           <t>Adaptations de son œuvre au cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2001 : Miaou ! (Minoes), film néerlandais de Vincent Bal, d’après le roman Cette mystérieuse Minouche (film sorti en France)[6].
-2014 : Wiplala, le lutin enchanteur, film néerlandais de Tim Oliehoek, d'après le roman Monsieur Ouiplala (film sorti en France)[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2001 : Miaou ! (Minoes), film néerlandais de Vincent Bal, d’après le roman Cette mystérieuse Minouche (film sorti en France).
+2014 : Wiplala, le lutin enchanteur, film néerlandais de Tim Oliehoek, d'après le roman Monsieur Ouiplala (film sorti en France).
 Sur les autres projets Wikimedia :
 Annie M. G. Schmidt, sur Wikimedia Commons
 </t>
